--- a/src/main/resources/benchmarks.xlsx
+++ b/src/main/resources/benchmarks.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\pm-mediatic-smash\development_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n_alv\artevolver2019\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
   <si>
     <t>known ticks</t>
   </si>
@@ -221,16 +222,82 @@
   </si>
   <si>
     <t>rsiTicks</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>iterations</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>iterations/second</t>
+  </si>
+  <si>
+    <t>fitness</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>p: 64 - jump: 1 - cross: 1</t>
+  </si>
+  <si>
+    <t>changes</t>
+  </si>
+  <si>
+    <t>Avoid recreating BufferedImage parentA</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>Avoid recreating Graphics g</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>Avoid recreating List&lt;Triangle&gt;</t>
+  </si>
+  <si>
+    <t>1.0.4</t>
+  </si>
+  <si>
+    <t>Avoid recreating imgChildA</t>
+  </si>
+  <si>
+    <t>1.0.5</t>
+  </si>
+  <si>
+    <t>Only calculate time during logging</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>ParentA iterator to for cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -404,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,6 +571,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +599,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -561,7 +636,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -587,7 +661,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -875,7 +949,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445999296"/>
@@ -934,7 +1008,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="445998880"/>
@@ -975,7 +1049,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1578,7 +1652,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1846,7 +1920,7 @@
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
@@ -4527,7 +4601,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="10" width="5.7109375" customWidth="1"/>
   </cols>
@@ -4882,11 +4956,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="9" max="10" width="5.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -4940,11 +5014,11 @@
         <v>0.91045224999999996</v>
       </c>
       <c r="G2" s="39">
-        <f t="shared" ref="G2:G11" si="0">C2/B2</f>
+        <f t="shared" ref="G2" si="0">C2/B2</f>
         <v>3.4716276977137266</v>
       </c>
       <c r="H2" s="39">
-        <f t="shared" ref="H2:H11" si="1">E2/D2</f>
+        <f t="shared" ref="H2:H10" si="1">E2/D2</f>
         <v>0.91045224999999996</v>
       </c>
       <c r="I2" s="39"/>
@@ -5045,7 +5119,7 @@
         <v>0.98400688999999997</v>
       </c>
       <c r="G5" s="39">
-        <f t="shared" ref="G5:G11" si="2">C5/B5</f>
+        <f t="shared" ref="G5:G10" si="2">C5/B5</f>
         <v>3.7520974414444206</v>
       </c>
       <c r="H5" s="39">
@@ -5324,4 +5398,320 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>31000</v>
+      </c>
+      <c r="E2">
+        <v>0.70233864404044999</v>
+      </c>
+      <c r="F2" s="43">
+        <v>60.127000000000002</v>
+      </c>
+      <c r="G2" s="44">
+        <f>D2/F2</f>
+        <v>515.57536547640825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>34000</v>
+      </c>
+      <c r="E3">
+        <v>0.70723110801206701</v>
+      </c>
+      <c r="F3" s="45">
+        <v>61.098999999999997</v>
+      </c>
+      <c r="G3" s="44">
+        <f>D3/F3</f>
+        <v>556.47391937674922</v>
+      </c>
+      <c r="H3" s="46">
+        <f>(G3/$G$2)-1</f>
+        <v>7.9326043560187243E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>35000</v>
+      </c>
+      <c r="E4">
+        <v>0.70750120407444395</v>
+      </c>
+      <c r="F4" s="45">
+        <v>61.256</v>
+      </c>
+      <c r="G4" s="44">
+        <f>D4/F4</f>
+        <v>571.37260023507906</v>
+      </c>
+      <c r="H4" s="46">
+        <f>(G4/$G$2)-1</f>
+        <v>0.10822323659143862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>35000</v>
+      </c>
+      <c r="E5">
+        <v>0.70898430430056203</v>
+      </c>
+      <c r="F5" s="45">
+        <v>60.558999999999997</v>
+      </c>
+      <c r="G5" s="44">
+        <f>D5/F5</f>
+        <v>577.94877722551564</v>
+      </c>
+      <c r="H5" s="46">
+        <f>(G5/$G$2)-1</f>
+        <v>0.12097826220124452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>35000</v>
+      </c>
+      <c r="E6">
+        <v>0.708747882386487</v>
+      </c>
+      <c r="F6" s="45">
+        <v>60.640999999999998</v>
+      </c>
+      <c r="G6" s="44">
+        <f>D6/F6</f>
+        <v>577.16726307283852</v>
+      </c>
+      <c r="H6" s="46">
+        <f>(G6/$G$2)-1</f>
+        <v>0.11946245247679244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="13">
+        <v>35000</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.70740260974649305</v>
+      </c>
+      <c r="F7" s="47">
+        <v>60.548000000000002</v>
+      </c>
+      <c r="G7" s="48">
+        <f>D7/F7</f>
+        <v>578.05377551694517</v>
+      </c>
+      <c r="H7" s="49">
+        <f>(G7/$G$2)-1</f>
+        <v>0.12118191485507612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="45"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="F9" s="45"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="F10" s="45"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+      <c r="F11" s="45"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="F12" s="45"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="F13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="F14" s="45"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="F15" s="45"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="F16" s="45"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="F17" s="45"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="F18" s="45"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="F19" s="45"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1"/>
+      <c r="F20" s="45"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="F21" s="45"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="F22" s="45"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="F23" s="45"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1"/>
+      <c r="F24" s="45"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="F25" s="45"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="F26" s="45"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="F27" s="45"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1"/>
+      <c r="F28" s="45"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1"/>
+      <c r="F29" s="45"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/benchmarks.xlsx
+++ b/src/main/resources/benchmarks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
   <si>
     <t>known ticks</t>
   </si>
@@ -284,7 +284,13 @@
     <t>1.1.0</t>
   </si>
   <si>
-    <t>ParentA iterator to for cycle</t>
+    <t>SplittableRandom instead of MersenneTwisterFast</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Avoid recreating List&lt;Triangle&gt; and clear()</t>
   </si>
 </sst>
 </file>
@@ -5410,7 +5416,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
@@ -5461,7 +5467,7 @@
         <v>60.127000000000002</v>
       </c>
       <c r="G2" s="44">
-        <f>D2/F2</f>
+        <f t="shared" ref="G2:G7" si="0">D2/F2</f>
         <v>515.57536547640825</v>
       </c>
     </row>
@@ -5485,7 +5491,7 @@
         <v>61.098999999999997</v>
       </c>
       <c r="G3" s="44">
-        <f>D3/F3</f>
+        <f t="shared" si="0"/>
         <v>556.47391937674922</v>
       </c>
       <c r="H3" s="46">
@@ -5513,7 +5519,7 @@
         <v>61.256</v>
       </c>
       <c r="G4" s="44">
-        <f>D4/F4</f>
+        <f t="shared" si="0"/>
         <v>571.37260023507906</v>
       </c>
       <c r="H4" s="46">
@@ -5541,7 +5547,7 @@
         <v>60.558999999999997</v>
       </c>
       <c r="G5" s="44">
-        <f>D5/F5</f>
+        <f t="shared" si="0"/>
         <v>577.94877722551564</v>
       </c>
       <c r="H5" s="46">
@@ -5569,7 +5575,7 @@
         <v>60.640999999999998</v>
       </c>
       <c r="G6" s="44">
-        <f>D6/F6</f>
+        <f t="shared" si="0"/>
         <v>577.16726307283852</v>
       </c>
       <c r="H6" s="46">
@@ -5597,7 +5603,7 @@
         <v>60.548000000000002</v>
       </c>
       <c r="G7" s="48">
-        <f>D7/F7</f>
+        <f t="shared" si="0"/>
         <v>578.05377551694517</v>
       </c>
       <c r="H7" s="49">
@@ -5615,10 +5621,34 @@
       <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="D8">
+        <v>36000</v>
+      </c>
+      <c r="E8">
+        <v>0.70816066147017598</v>
+      </c>
+      <c r="F8" s="45">
+        <v>60.484999999999999</v>
+      </c>
+      <c r="G8" s="44">
+        <f t="shared" ref="G8" si="1">D8/F8</f>
+        <v>595.1888898073903</v>
+      </c>
+      <c r="H8" s="46">
+        <f>(G8/$G$2)-1</f>
+        <v>0.15441685088545021</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
+      <c r="A9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:8">

--- a/src/main/resources/benchmarks.xlsx
+++ b/src/main/resources/benchmarks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="100">
   <si>
     <t>known ticks</t>
   </si>
@@ -287,10 +287,46 @@
     <t>SplittableRandom instead of MersenneTwisterFast</t>
   </si>
   <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>Avoid recreating List&lt;Triangle&gt; and clear()</t>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>p: 2 - jump: 1 - cross: 1</t>
+  </si>
+  <si>
+    <t>Resizable, 4 PALLETES, scaled x4</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>TYPE_USHORT_565_RGB</t>
+  </si>
+  <si>
+    <t>TYPE_BYTE_INDEXED</t>
+  </si>
+  <si>
+    <t>TYPE_3BYTE_BGR</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>TYPE_INT_ARGB - compare() avoid recreate on loop</t>
+  </si>
+  <si>
+    <t>p: 8 - jump: 1 - cross: 1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>evolve iter.</t>
+  </si>
+  <si>
+    <t>p: 16 - jump: 2 - cross: 2</t>
   </si>
 </sst>
 </file>
@@ -381,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -473,11 +509,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -585,6 +632,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5408,22 +5469,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
@@ -5434,22 +5497,26 @@
         <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>71</v>
       </c>
@@ -5457,21 +5524,24 @@
       <c r="C2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
+        <v>16</v>
+      </c>
+      <c r="E2">
         <v>31000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.70233864404044999</v>
       </c>
-      <c r="F2" s="43">
+      <c r="G2" s="43">
         <v>60.127000000000002</v>
       </c>
-      <c r="G2" s="44">
-        <f t="shared" ref="G2:G7" si="0">D2/F2</f>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2:H7" si="0">E2/G2</f>
         <v>515.57536547640825</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -5481,25 +5551,28 @@
       <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
+        <v>16</v>
+      </c>
+      <c r="E3">
         <v>34000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.70723110801206701</v>
       </c>
-      <c r="F3" s="45">
+      <c r="G3" s="45">
         <v>61.098999999999997</v>
       </c>
-      <c r="G3" s="44">
+      <c r="H3" s="44">
         <f t="shared" si="0"/>
         <v>556.47391937674922</v>
       </c>
-      <c r="H3" s="46">
-        <f>(G3/$G$2)-1</f>
+      <c r="I3" s="46">
+        <f>(H3/$H$2)-1</f>
         <v>7.9326043560187243E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -5509,25 +5582,28 @@
       <c r="C4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
+        <v>16</v>
+      </c>
+      <c r="E4">
         <v>35000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.70750120407444395</v>
       </c>
-      <c r="F4" s="45">
+      <c r="G4" s="45">
         <v>61.256</v>
       </c>
-      <c r="G4" s="44">
+      <c r="H4" s="44">
         <f t="shared" si="0"/>
         <v>571.37260023507906</v>
       </c>
-      <c r="H4" s="46">
-        <f>(G4/$G$2)-1</f>
+      <c r="I4" s="46">
+        <f>(H4/$H$2)-1</f>
         <v>0.10822323659143862</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
@@ -5537,25 +5613,28 @@
       <c r="C5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
+        <v>16</v>
+      </c>
+      <c r="E5">
         <v>35000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.70898430430056203</v>
       </c>
-      <c r="F5" s="45">
+      <c r="G5" s="45">
         <v>60.558999999999997</v>
       </c>
-      <c r="G5" s="44">
+      <c r="H5" s="44">
         <f t="shared" si="0"/>
         <v>577.94877722551564</v>
       </c>
-      <c r="H5" s="46">
-        <f>(G5/$G$2)-1</f>
+      <c r="I5" s="46">
+        <f>(H5/$H$2)-1</f>
         <v>0.12097826220124452</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,25 +5644,28 @@
       <c r="C6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+      <c r="E6">
         <v>35000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.708747882386487</v>
       </c>
-      <c r="F6" s="45">
+      <c r="G6" s="45">
         <v>60.640999999999998</v>
       </c>
-      <c r="G6" s="44">
+      <c r="H6" s="44">
         <f t="shared" si="0"/>
         <v>577.16726307283852</v>
       </c>
-      <c r="H6" s="46">
-        <f>(G6/$G$2)-1</f>
+      <c r="I6" s="46">
+        <f>(H6/$H$2)-1</f>
         <v>0.11946245247679244</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:12">
       <c r="A7" s="10" t="s">
         <v>82</v>
       </c>
@@ -5593,151 +5675,288 @@
       <c r="C7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
+        <v>16</v>
+      </c>
+      <c r="E7" s="13">
         <v>35000</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>0.70740260974649305</v>
       </c>
-      <c r="F7" s="47">
+      <c r="G7" s="47">
         <v>60.548000000000002</v>
       </c>
-      <c r="G7" s="48">
+      <c r="H7" s="48">
         <f t="shared" si="0"/>
         <v>578.05377551694517</v>
       </c>
-      <c r="H7" s="49">
-        <f>(G7/$G$2)-1</f>
+      <c r="I7" s="49">
+        <f>(H7/$H$2)-1</f>
         <v>0.12118191485507612</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="53">
+        <v>16</v>
+      </c>
+      <c r="E8" s="54">
         <v>36000</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="54">
         <v>0.70816066147017598</v>
       </c>
-      <c r="F8" s="45">
+      <c r="G8" s="55">
         <v>60.484999999999999</v>
       </c>
-      <c r="G8" s="44">
-        <f t="shared" ref="G8" si="1">D8/F8</f>
+      <c r="H8" s="56">
+        <f>E8/G8</f>
         <v>595.1888898073903</v>
       </c>
-      <c r="H8" s="46">
-        <f>(G8/$G$2)-1</f>
+      <c r="I8" s="57">
+        <f>(H8/$H$2)-1</f>
         <v>0.15441685088545021</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="58" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="45"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="F10" s="45"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>5000</v>
+      </c>
+      <c r="F9">
+        <v>0.68181893204911304</v>
+      </c>
+      <c r="G9" s="45">
+        <v>63.067</v>
+      </c>
+      <c r="H9" s="44">
+        <f t="shared" ref="H9:H10" si="1">E9/G9</f>
+        <v>79.280764900819761</v>
+      </c>
+      <c r="I9" s="46"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>4000</v>
+      </c>
+      <c r="F10">
+        <v>0.66824716045247901</v>
+      </c>
+      <c r="G10" s="45">
+        <v>60.56</v>
+      </c>
+      <c r="H10" s="44">
+        <f t="shared" si="1"/>
+        <v>66.050198150594454</v>
+      </c>
+      <c r="I10" s="46">
+        <f>(H10/$H$9)-1</f>
+        <v>-0.16688243064729191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="F11" s="45"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="B11" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>5000</v>
+      </c>
+      <c r="F11">
+        <v>0.67339447591477197</v>
+      </c>
+      <c r="G11" s="45">
+        <v>63.008000000000003</v>
+      </c>
+      <c r="H11" s="44">
+        <f t="shared" ref="H11" si="2">E11/G11</f>
+        <v>79.355002539360072</v>
+      </c>
+      <c r="I11" s="46">
+        <f>(H11/$H$9)-1</f>
+        <v>9.3638902996429074E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
-      <c r="F12" s="45"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="F13" s="45"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="F14" s="45"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="B12" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>2982000</v>
+      </c>
+      <c r="F12">
+        <v>0.80509100731356298</v>
+      </c>
+      <c r="G12" s="45">
+        <v>45199.45</v>
+      </c>
+      <c r="H12" s="44">
+        <f t="shared" ref="H12" si="3">E12/G12</f>
+        <v>65.97425411149915</v>
+      </c>
+      <c r="I12" s="46">
+        <f>(H12/$H$9)-1</f>
+        <v>-0.16784034319001662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>379000</v>
+      </c>
+      <c r="F13">
+        <v>0.79027606150604601</v>
+      </c>
+      <c r="G13" s="45">
+        <v>2640.1689999999999</v>
+      </c>
+      <c r="H13" s="44">
+        <f t="shared" ref="H13" si="4">E13/G13</f>
+        <v>143.55141659492253</v>
+      </c>
+      <c r="I13" s="46">
+        <f>(H13/$H$9)-1</f>
+        <v>0.81067143807839592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16</v>
+      </c>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
-      <c r="F15" s="45"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="G15" s="45"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
-      <c r="F16" s="45"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="45"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="F17" s="45"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="45"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
-      <c r="F18" s="45"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="45"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
-      <c r="F20" s="45"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="45"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1"/>
-      <c r="F22" s="45"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="45"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="F23" s="45"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="45"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1"/>
-      <c r="F24" s="45"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="45"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1"/>
-      <c r="F25" s="45"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="45"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
-      <c r="F26" s="45"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="45"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1"/>
-      <c r="F27" s="45"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="45"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
-      <c r="F28" s="45"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="45"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
-      <c r="F29" s="45"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="45"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
     </row>
   </sheetData>

--- a/src/main/resources/benchmarks.xlsx
+++ b/src/main/resources/benchmarks.xlsx
@@ -5568,7 +5568,7 @@
         <v>556.47391937674922</v>
       </c>
       <c r="I3" s="46">
-        <f>(H3/$H$2)-1</f>
+        <f t="shared" ref="I3:I8" si="1">(H3/$H$2)-1</f>
         <v>7.9326043560187243E-2</v>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
         <v>571.37260023507906</v>
       </c>
       <c r="I4" s="46">
-        <f>(H4/$H$2)-1</f>
+        <f t="shared" si="1"/>
         <v>0.10822323659143862</v>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
         <v>577.94877722551564</v>
       </c>
       <c r="I5" s="46">
-        <f>(H5/$H$2)-1</f>
+        <f t="shared" si="1"/>
         <v>0.12097826220124452</v>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
         <v>577.16726307283852</v>
       </c>
       <c r="I6" s="46">
-        <f>(H6/$H$2)-1</f>
+        <f t="shared" si="1"/>
         <v>0.11946245247679244</v>
       </c>
     </row>
@@ -5692,7 +5692,7 @@
         <v>578.05377551694517</v>
       </c>
       <c r="I7" s="49">
-        <f>(H7/$H$2)-1</f>
+        <f t="shared" si="1"/>
         <v>0.12118191485507612</v>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
         <v>595.1888898073903</v>
       </c>
       <c r="I8" s="57">
-        <f>(H8/$H$2)-1</f>
+        <f t="shared" si="1"/>
         <v>0.15441685088545021</v>
       </c>
     </row>
@@ -5750,7 +5750,7 @@
         <v>63.067</v>
       </c>
       <c r="H9" s="44">
-        <f t="shared" ref="H9:H10" si="1">E9/G9</f>
+        <f t="shared" ref="H9:H10" si="2">E9/G9</f>
         <v>79.280764900819761</v>
       </c>
       <c r="I9" s="46"/>
@@ -5778,7 +5778,7 @@
         <v>60.56</v>
       </c>
       <c r="H10" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.050198150594454</v>
       </c>
       <c r="I10" s="46">
@@ -5807,7 +5807,7 @@
         <v>63.008000000000003</v>
       </c>
       <c r="H11" s="44">
-        <f t="shared" ref="H11" si="2">E11/G11</f>
+        <f t="shared" ref="H11" si="3">E11/G11</f>
         <v>79.355002539360072</v>
       </c>
       <c r="I11" s="46">
@@ -5836,7 +5836,7 @@
         <v>45199.45</v>
       </c>
       <c r="H12" s="44">
-        <f t="shared" ref="H12" si="3">E12/G12</f>
+        <f t="shared" ref="H12" si="4">E12/G12</f>
         <v>65.97425411149915</v>
       </c>
       <c r="I12" s="46">
@@ -5867,7 +5867,7 @@
         <v>2640.1689999999999</v>
       </c>
       <c r="H13" s="44">
-        <f t="shared" ref="H13" si="4">E13/G13</f>
+        <f t="shared" ref="H13" si="5">E13/G13</f>
         <v>143.55141659492253</v>
       </c>
       <c r="I13" s="46">

--- a/src/main/resources/benchmarks.xlsx
+++ b/src/main/resources/benchmarks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -11514,7 +11514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G28" sqref="G28"/>
     </sheetView>
@@ -11559,7 +11559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/benchmarks.xlsx
+++ b/src/main/resources/benchmarks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -981,6 +981,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11514,7 +11515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G28" sqref="G28"/>
     </sheetView>
@@ -11559,7 +11560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
